--- a/data/essington_pO2_extended.xlsx
+++ b/data/essington_pO2_extended.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxlindmark/Dropbox/Max work/R/spatial-metabolic-index/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E47B636-52FF-9C41-A677-F005AB43E800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB7AA37-4B20-C048-B7DD-A0BF30D4A87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="11020" windowWidth="23040" windowHeight="16320" xr2:uid="{A4E28896-C0DD-534D-9243-2B608457B0FC}"/>
+    <workbookView xWindow="33600" yWindow="5200" windowWidth="35660" windowHeight="21120" xr2:uid="{A4E28896-C0DD-534D-9243-2B608457B0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
   <si>
     <t>b</t>
   </si>
@@ -339,9 +339,6 @@
   </si>
   <si>
     <t>Lindmark</t>
-  </si>
-  <si>
-    <t>Miller originial papers in 2002</t>
   </si>
   <si>
     <t xml:space="preserve">weight of mean experimental size with fishbase LW params; **** This is too low because only 40% survive (not 50%) and that’s at 48 H. 50% survival is reached for 20% O2 after 29 h. </t>
@@ -372,18 +369,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -406,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -725,9 +716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A109D284-1BFC-F246-85E2-74BF676F375F}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1794,13 +1785,11 @@
         <v>100</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="A49" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/essington_pO2_extended.xlsx
+++ b/data/essington_pO2_extended.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxlindmark/Dropbox/Max work/R/spatial-metabolic-index/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB7AA37-4B20-C048-B7DD-A0BF30D4A87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6591409C-45DA-9644-BFF2-E73558AABADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="5200" windowWidth="35660" windowHeight="21120" xr2:uid="{A4E28896-C0DD-534D-9243-2B608457B0FC}"/>
   </bookViews>
@@ -341,7 +341,7 @@
     <t>Lindmark</t>
   </si>
   <si>
-    <t xml:space="preserve">weight of mean experimental size with fishbase LW params; **** This is too low because only 40% survive (not 50%) and that’s at 48 H. 50% survival is reached for 20% O2 after 29 h. </t>
+    <t xml:space="preserve">weight of mean experimental size with fishbase LW params. Lc50 too low because only 40% survive (not 50%) and that’s at 48 H. 50% survival is reached for 20% O2 after 29 h. </t>
   </si>
 </sst>
 </file>
@@ -389,15 +389,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -714,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A109D284-1BFC-F246-85E2-74BF676F375F}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1788,9 +1785,6 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/essington_pO2_extended.xlsx
+++ b/data/essington_pO2_extended.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxlindmark/Dropbox/Max work/R/spatial-metabolic-index/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6591409C-45DA-9644-BFF2-E73558AABADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2FB77F-BFD7-DB46-82B0-DCC91E6DB1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="5200" windowWidth="35660" windowHeight="21120" xr2:uid="{A4E28896-C0DD-534D-9243-2B608457B0FC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26760" xr2:uid="{A4E28896-C0DD-534D-9243-2B608457B0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="103">
   <si>
     <t>b</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t xml:space="preserve">weight of mean experimental size with fishbase LW params. Lc50 too low because only 40% survive (not 50%) and that’s at 48 H. 50% survival is reached for 20% O2 after 29 h. </t>
+  </si>
+  <si>
+    <t>Essington2022</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,6 +785,9 @@
       <c r="G2" s="2">
         <v>33</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -805,6 +811,9 @@
       <c r="G3" s="2">
         <v>33</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -828,6 +837,9 @@
       <c r="G4" s="2">
         <v>33</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -851,6 +863,9 @@
       <c r="G5" s="2">
         <v>33</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -874,6 +889,9 @@
       <c r="G6" s="2">
         <v>33</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -897,6 +915,9 @@
       <c r="G7" s="2">
         <v>33</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -920,6 +941,9 @@
       <c r="G8" s="2">
         <v>33</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -943,6 +967,9 @@
       <c r="G9" s="2">
         <v>33</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -966,6 +993,9 @@
       <c r="G10" s="2">
         <v>33</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -989,6 +1019,9 @@
       <c r="G11" s="2">
         <v>33</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1012,6 +1045,9 @@
       <c r="G12" s="2">
         <v>33</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1035,6 +1071,9 @@
       <c r="G13" s="2">
         <v>33</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1058,6 +1097,9 @@
       <c r="G14" s="2">
         <v>33</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1081,6 +1123,9 @@
       <c r="G15" s="2">
         <v>33</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1104,8 +1149,11 @@
       <c r="G16" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1127,8 +1175,11 @@
       <c r="G17" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I17" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1150,8 +1201,11 @@
       <c r="G18" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I18" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1173,8 +1227,11 @@
       <c r="G19" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1196,8 +1253,11 @@
       <c r="G20" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1219,8 +1279,11 @@
       <c r="G21" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I21" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1242,8 +1305,11 @@
       <c r="G22" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I22" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -1265,8 +1331,11 @@
       <c r="G23" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I23" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -1288,8 +1357,11 @@
       <c r="G24" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1311,8 +1383,11 @@
       <c r="G25" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I25" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1334,8 +1409,11 @@
       <c r="G26" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I26" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1357,8 +1435,11 @@
       <c r="G27" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1380,8 +1461,11 @@
       <c r="G28" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1403,8 +1487,11 @@
       <c r="G29" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I29" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1426,8 +1513,11 @@
       <c r="G30" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I30" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>675</v>
       </c>
@@ -1449,8 +1539,11 @@
       <c r="G31" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.25">
+      <c r="I31" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -1471,6 +1564,9 @@
       </c>
       <c r="G32" s="2">
         <v>25</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1495,6 +1591,9 @@
       <c r="G33" s="2">
         <v>25</v>
       </c>
+      <c r="I33" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1518,6 +1617,9 @@
       <c r="G34" s="2">
         <v>25</v>
       </c>
+      <c r="I34" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1541,6 +1643,9 @@
       <c r="G35" s="2">
         <v>25</v>
       </c>
+      <c r="I35" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1564,6 +1669,9 @@
       <c r="G36" s="2">
         <v>25</v>
       </c>
+      <c r="I36" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1587,6 +1695,9 @@
       <c r="G37" s="2">
         <v>25</v>
       </c>
+      <c r="I37" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1610,6 +1721,9 @@
       <c r="G38" s="2">
         <v>25</v>
       </c>
+      <c r="I38" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -1633,6 +1747,9 @@
       <c r="G39" s="2">
         <v>25</v>
       </c>
+      <c r="I39" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1655,6 +1772,9 @@
       </c>
       <c r="G40" s="2">
         <v>25</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">

--- a/data/essington_pO2_extended.xlsx
+++ b/data/essington_pO2_extended.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxlindmark/Dropbox/Max work/R/spatial-metabolic-index/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2FB77F-BFD7-DB46-82B0-DCC91E6DB1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8284B7DA-0E41-6046-9E2A-1F81035F43CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26760" xr2:uid="{A4E28896-C0DD-534D-9243-2B608457B0FC}"/>
   </bookViews>
@@ -718,7 +718,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,8 +727,9 @@
     <col min="5" max="5" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.25">
